--- a/dataset/day_5.xlsx
+++ b/dataset/day_5.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>G((Corridor.Speaker.on) -&gt; (F[0, 1*60] !(Corridor.Speaker.on)))</t>
+          <t>#10</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -19755,7 +19755,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.WaterDispenser.on))</t>
+          <t>#5</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -29447,7 +29447,7 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.human_undetected -&gt; (F[0, 30] MeetingRoomTwo.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
@@ -30099,7 +30099,7 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
@@ -30271,7 +30271,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -32203,7 +32203,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -35975,7 +35975,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -37027,7 +37027,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -37919,7 +37919,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -38811,7 +38811,7 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
@@ -40543,7 +40543,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -48195,7 +48195,7 @@
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1189" t="inlineStr">
@@ -53487,7 +53487,7 @@
       </c>
       <c r="H1321" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I1321" t="inlineStr">
@@ -53779,7 +53779,7 @@
       </c>
       <c r="H1328" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1328" t="inlineStr">
@@ -58631,7 +58631,7 @@
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.WaterDispenser.on))</t>
+          <t>#5</t>
         </is>
       </c>
       <c r="I1449" t="inlineStr">
@@ -59683,7 +59683,7 @@
       </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1475" t="inlineStr">
@@ -60255,7 +60255,7 @@
       </c>
       <c r="H1489" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.human_undetected -&gt; (F[0, 30] MeetingRoomTwo.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1489" t="inlineStr">
@@ -61907,7 +61907,7 @@
       </c>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1530" t="inlineStr">
@@ -63759,7 +63759,7 @@
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.human_undetected -&gt; (F[0, 30] MeetingRoomTwo.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1576" t="inlineStr">
@@ -67491,7 +67491,7 @@
       </c>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I1669" t="inlineStr">
@@ -69903,7 +69903,7 @@
       </c>
       <c r="H1729" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1729" t="inlineStr">
@@ -74035,7 +74035,7 @@
       </c>
       <c r="H1832" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I1832" t="inlineStr">
